--- a/Distances.xlsx
+++ b/Distances.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samlefkofsky/OneDrive - Dartmouth College/Operations Research/19W/Anaconda Files/OR11/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/samlefkofsky/OneDrive - Dartmouth College/Operations Research/19W/Anaconda Files/OR13/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{E1B880E8-4132-8443-AF93-8C724A9E5D71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{276CA227-F077-5B44-8560-DCE48EA5142E}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="13_ncr:1_{E1B880E8-4132-8443-AF93-8C724A9E5D71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{82BAC15C-C56A-CB47-8BCF-A03406F9DC7D}"/>
   <bookViews>
-    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16660" xr2:uid="{267D360C-7794-1E4D-B7B4-D6FAE59A212C}"/>
+    <workbookView xWindow="760" yWindow="480" windowWidth="28040" windowHeight="16660" xr2:uid="{267D360C-7794-1E4D-B7B4-D6FAE59A212C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>New York</t>
   </si>
@@ -48,6 +48,12 @@
   </si>
   <si>
     <t>D.C.</t>
+  </si>
+  <si>
+    <t>Baltimore</t>
+  </si>
+  <si>
+    <t>Portland</t>
   </si>
 </sst>
 </file>
@@ -399,15 +405,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1563526A-EFEB-A64E-B33A-6CA53AA537DB}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -423,8 +429,14 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>0</v>
       </c>
@@ -440,8 +452,14 @@
       <c r="E2">
         <v>225</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2">
+        <v>190</v>
+      </c>
+      <c r="G2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>232</v>
       </c>
@@ -457,8 +475,14 @@
       <c r="E3">
         <v>457</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3">
+        <v>401</v>
+      </c>
+      <c r="G3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>95</v>
       </c>
@@ -474,8 +498,14 @@
       <c r="E4">
         <v>142</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4">
+        <v>101</v>
+      </c>
+      <c r="G4">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>181</v>
       </c>
@@ -491,8 +521,14 @@
       <c r="E5">
         <v>406</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5">
+        <v>367</v>
+      </c>
+      <c r="G5">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>225</v>
       </c>
@@ -506,6 +542,58 @@
         <v>406</v>
       </c>
       <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>44</v>
+      </c>
+      <c r="G6">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>190</v>
+      </c>
+      <c r="B7">
+        <v>401</v>
+      </c>
+      <c r="C7">
+        <v>101</v>
+      </c>
+      <c r="D7">
+        <v>367</v>
+      </c>
+      <c r="E7">
+        <v>44</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>314</v>
+      </c>
+      <c r="B8">
+        <v>107</v>
+      </c>
+      <c r="C8">
+        <v>406</v>
+      </c>
+      <c r="D8">
+        <v>163</v>
+      </c>
+      <c r="E8">
+        <v>539</v>
+      </c>
+      <c r="F8">
+        <v>500</v>
+      </c>
+      <c r="G8">
         <v>0</v>
       </c>
     </row>
